--- a/biology/Histoire de la zoologie et de la botanique/Walter_Granger/Walter_Granger.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Walter_Granger/Walter_Granger.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Walter Willis Granger (Middletown Springs, 7 novembre 1872-Lusk (Wyoming), 6 septembre 1941) est un paléontologue américain qui a participé à d'importantes expéditions de recherches de fossiles aux États-Unis, en Égypte, en Chine et en Mongolie.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Premier des cinq fils d'un agent d'assurances, Charles H. Granger et de Ada Haynes, il s’intéresse d'abord à la taxidermie et obtient à dix-sept ans un poste de taxidermiste (1890) au Muséum américain d'histoire naturelle de New York.
 En 1894-1895, il participe aux campagnes de recherches dans l'Ouest américain et se passionne pour les fossiles. Il rejoint en 1896 le musée de paléontologie des vertébrés et, en 1897, lors d'une expédition dans le Wyoming découvre le site de Bone Cabin Quarry (en) près de Laramie, riche des fossiles de soixante-quatre dinosaures dont des stégosaures, des allosaures et des apatosaures.
@@ -547,9 +561,11 @@
           <t>Hommages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Un doctorat d'honneur lui est décerné par le Middlebury College en 1932. George Gaylord Simpson a écrit sur lui : « le plus grand collectionneur de vertébrés fossiles qui ait jamais vécu »[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un doctorat d'honneur lui est décerné par le Middlebury College en 1932. George Gaylord Simpson a écrit sur lui : « le plus grand collectionneur de vertébrés fossiles qui ait jamais vécu ».
 </t>
         </is>
       </c>
